--- a/disabled products/Gen 2.5 Open Air Cooler.xlsx
+++ b/disabled products/Gen 2.5 Open Air Cooler.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrypkahauer/Developer/Python/Jenn/prod_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenn/Documents/QuikTrip/2024 Reset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C282078-7DC7-C645-BFB8-0AC5927FEC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373FBD0A-7267-3A42-8367-AABEFBAE2A71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4480" yWindow="500" windowWidth="23520" windowHeight="22540" xr2:uid="{6AFE01E6-0AD3-5D44-89B4-A7FF84AAE882}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="12680" windowHeight="14400" xr2:uid="{6AFE01E6-0AD3-5D44-89B4-A7FF84AAE882}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,12 +93,6 @@
     <t>Cracker Barrel Cheddar</t>
   </si>
   <si>
-    <t>021000072361</t>
-  </si>
-  <si>
-    <t>Cracker Barrel Aged Cheddar Cubes</t>
-  </si>
-  <si>
     <t>782796018734</t>
   </si>
   <si>
@@ -153,12 +147,6 @@
     <t>GNG White Whole Turkey Sub</t>
   </si>
   <si>
-    <t>000000541251</t>
-  </si>
-  <si>
-    <t>GNG White Whole Ham Sub</t>
-  </si>
-  <si>
     <t>000000523851</t>
   </si>
   <si>
@@ -183,9 +171,6 @@
     <t>Chicken Caesar Salad</t>
   </si>
   <si>
-    <t>030223035879</t>
-  </si>
-  <si>
     <t>Chicken Cobb Salad</t>
   </si>
   <si>
@@ -213,24 +198,6 @@
     <t>GNG Wheat Whole Stack Sub</t>
   </si>
   <si>
-    <t>000000520737</t>
-  </si>
-  <si>
-    <t>GNG Wheat Whole Roast Beef Sub</t>
-  </si>
-  <si>
-    <t>000000523868</t>
-  </si>
-  <si>
-    <t>GNG Wheat Half Roast Beef Sub</t>
-  </si>
-  <si>
-    <t>030223037446</t>
-  </si>
-  <si>
-    <t>Chef Salad with Chicken</t>
-  </si>
-  <si>
     <t>854426008337</t>
   </si>
   <si>
@@ -249,12 +216,6 @@
     <t>Red Pepper Hummus w/Pretzels</t>
   </si>
   <si>
-    <t>044529147815</t>
-  </si>
-  <si>
-    <t>Snackups Cheddar and Pretzel</t>
-  </si>
-  <si>
     <t>046675026976</t>
   </si>
   <si>
@@ -297,24 +258,12 @@
     <t>GNG Turkey Wrap</t>
   </si>
   <si>
-    <t>000000532112</t>
-  </si>
-  <si>
-    <t>GNG Stack Wrap</t>
-  </si>
-  <si>
     <t>000000541138</t>
   </si>
   <si>
     <t>GNG Southwest Chicken Wrap</t>
   </si>
   <si>
-    <t>000000532075</t>
-  </si>
-  <si>
-    <t>GNG Ham Wrap</t>
-  </si>
-  <si>
     <t>854426008078</t>
   </si>
   <si>
@@ -453,24 +402,6 @@
     <t>Minute Maid Apple Juice</t>
   </si>
   <si>
-    <t>811620020640</t>
-  </si>
-  <si>
-    <t>Core Power Elite Chocolate</t>
-  </si>
-  <si>
-    <t>811620021470</t>
-  </si>
-  <si>
-    <t>Core Power Elite Strawberry</t>
-  </si>
-  <si>
-    <t>811620020664</t>
-  </si>
-  <si>
-    <t>Core Power Elite Vanilla</t>
-  </si>
-  <si>
     <t>049000172386</t>
   </si>
   <si>
@@ -489,10 +420,79 @@
     <t>Red Bull 12oz</t>
   </si>
   <si>
-    <t>611269423754</t>
-  </si>
-  <si>
-    <t>Red Bull Sugar Free 12oz</t>
+    <t>030223071174</t>
+  </si>
+  <si>
+    <t>030223071181</t>
+  </si>
+  <si>
+    <t>Chef Salad Ham/Turkey</t>
+  </si>
+  <si>
+    <t>786162411716</t>
+  </si>
+  <si>
+    <t>Smart Water Alkaline 12oz Can</t>
+  </si>
+  <si>
+    <t>786162411709</t>
+  </si>
+  <si>
+    <t>Smart Water 12oz Can</t>
+  </si>
+  <si>
+    <t>026400700043</t>
+  </si>
+  <si>
+    <t>Darigold 1% Chocolate MILK 8oz</t>
+  </si>
+  <si>
+    <t>026400700098</t>
+  </si>
+  <si>
+    <t>Darigold 2% Milk 8oz</t>
+  </si>
+  <si>
+    <t>811620022002</t>
+  </si>
+  <si>
+    <t>Core Power Chocolate</t>
+  </si>
+  <si>
+    <t>811620022033</t>
+  </si>
+  <si>
+    <t>Core Power Strawberry</t>
+  </si>
+  <si>
+    <t>811620022019</t>
+  </si>
+  <si>
+    <t>Core Power Vanilla</t>
+  </si>
+  <si>
+    <t>611269002072</t>
+  </si>
+  <si>
+    <t>Red Bull SF Watermelon 12oz</t>
+  </si>
+  <si>
+    <t>611269002157</t>
+  </si>
+  <si>
+    <t>Red Bull SF Strawberry Apricot 12oz</t>
+  </si>
+  <si>
+    <t>710779006539</t>
+  </si>
+  <si>
+    <t>Lean Body Chocolate Peanutbutter 14oz</t>
+  </si>
+  <si>
+    <t>710779770515</t>
+  </si>
+  <si>
+    <t>Lean Body Strawberry 14oz</t>
   </si>
 </sst>
 </file>
@@ -558,9 +558,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -598,7 +598,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -704,7 +704,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -846,7 +846,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -856,15 +856,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8644E78-3D7F-4948-BE8E-CDD893B1CC72}">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -990,7 +990,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>22</v>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>26</v>
@@ -1067,24 +1067,24 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1092,10 +1092,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1103,10 +1103,10 @@
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1114,21 +1114,21 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1136,21 +1136,21 @@
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1158,43 +1158,43 @@
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
         <v>52</v>
-      </c>
-      <c r="C28" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
         <v>54</v>
-      </c>
-      <c r="C29" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
         <v>56</v>
-      </c>
-      <c r="C30" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1202,10 +1202,10 @@
         <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1213,10 +1213,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1224,10 +1224,10 @@
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1235,10 +1235,10 @@
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1246,10 +1246,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1257,10 +1257,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1268,10 +1268,10 @@
         <v>1</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1279,10 +1279,10 @@
         <v>1</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1290,10 +1290,10 @@
         <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1301,10 +1301,10 @@
         <v>1</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1312,10 +1312,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1323,10 +1323,10 @@
         <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1334,10 +1334,10 @@
         <v>1</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1345,10 +1345,10 @@
         <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1356,43 +1356,43 @@
         <v>1</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="C47" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="C48" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1400,10 +1400,10 @@
         <v>2</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1411,10 +1411,10 @@
         <v>1</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1422,10 +1422,10 @@
         <v>1</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C51" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1433,10 +1433,10 @@
         <v>1</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -1444,10 +1444,10 @@
         <v>1</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1455,10 +1455,10 @@
         <v>1</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C54" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1466,43 +1466,43 @@
         <v>1</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C55" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C56" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C57" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C58" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -1510,10 +1510,10 @@
         <v>2</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C59" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1521,10 +1521,10 @@
         <v>2</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C60" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1532,87 +1532,87 @@
         <v>2</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C61" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C62" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C63" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C64" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C65" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C66" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C67" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C68" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -1620,32 +1620,32 @@
         <v>2</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C69" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C70" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C71" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -1653,21 +1653,21 @@
         <v>2</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C72" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C73" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -1675,21 +1675,21 @@
         <v>2</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C74" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C75" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -1697,54 +1697,54 @@
         <v>1</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C76" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C77" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>1</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C78" t="s">
-        <v>151</v>
+        <v>2</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>2</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>155</v>
+        <v>1</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C80" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
